--- a/macronew.xlsx
+++ b/macronew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCMA 2024\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43BAB2C2-E651-4255-A433-E61D07EA9DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFE822F-BB2D-4F9E-9D52-D9FCE2CBD7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E303C134-3124-3148-BE53-DE14F10027F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="14" xr2:uid="{E303C134-3124-3148-BE53-DE14F10027F7}"/>
   </bookViews>
   <sheets>
     <sheet name="deficit" sheetId="20" r:id="rId1"/>
@@ -1632,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1BE7F3-95C2-44A0-8683-07EDC4728A0D}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A45"/>
     </sheetView>
   </sheetViews>
@@ -4710,7 +4710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFB3DBA-00AC-0448-A6DD-DFD1A8EE539C}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:A54"/>
     </sheetView>
   </sheetViews>
@@ -5431,7 +5431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1C9ABA-6A3A-C648-B2AC-4AD44D47415E}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="157" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="157" workbookViewId="0">
       <selection activeCell="A70" sqref="A70:A72"/>
     </sheetView>
   </sheetViews>
@@ -8269,7 +8269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCF7D35-EBDC-594C-8318-563CC4520922}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -9538,13 +9538,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C19335B-53D2-4C47-97CD-9F4608A322CA}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
@@ -10372,7 +10373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6948AEDD-B552-421C-897F-4AF889306AF8}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -13806,7 +13807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20438261-168A-C24F-A804-AD49D2377A46}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="150" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -14656,7 +14657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB3493D-75AD-0D40-951D-11385455EE3A}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="150" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
